--- a/Lista de chequeo.xlsx
+++ b/Lista de chequeo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\trabajos ficha 3206404\Communicating-Design-Lion-pagina-web-main\Communicating-Design-Lion-pagina-web-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EDD9CD-6279-4342-9FBA-1B2950B47851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB53F1AB-C103-49B4-BB22-EFFCF15CAD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -209,94 +209,112 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="medium">
-        <color auto="1"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -318,55 +336,73 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -380,6 +416,24 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -399,19 +453,25 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center"/>
-      <border outline="0">
-        <left style="medium">
-          <color auto="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
         </left>
-        <right style="medium">
-          <color auto="1"/>
+        <right style="thin">
+          <color indexed="64"/>
         </right>
-        <top style="medium">
-          <color auto="1"/>
+        <top style="thin">
+          <color indexed="64"/>
         </top>
-        <bottom style="medium">
-          <color auto="1"/>
+        <bottom style="thin">
+          <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -432,15 +492,25 @@
         </patternFill>
       </fill>
       <alignment vertical="top" wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top style="medium">
-          <color auto="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
         </top>
-        <bottom style="medium">
-          <color auto="1"/>
+        <bottom style="thin">
+          <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -461,16 +531,52 @@
         </patternFill>
       </fill>
       <alignment vertical="top" wrapText="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <border>
-        <left/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
         <right style="medium">
-          <color auto="1"/>
+          <color indexed="64"/>
         </right>
         <top style="medium">
-          <color auto="1"/>
+          <color indexed="64"/>
         </top>
         <bottom style="medium">
-          <color auto="1"/>
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
@@ -488,13 +594,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B2:E16" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B2:E16" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
   <autoFilter ref="B2:E16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Trimestre" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Lista de Chequeo" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Entregables" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{BEB37B81-24E7-4E20-9B6C-0105A79B3860}" name="NOTAS" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Trimestre" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Lista de Chequeo" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Entregables" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{BEB37B81-24E7-4E20-9B6C-0105A79B3860}" name="NOTAS" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -760,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="47" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -784,204 +890,204 @@
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:10" ht="23.25" customHeight="1" thickBot="1">
+    <row r="2" spans="1:10" ht="23.25" customHeight="1">
       <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="60" customHeight="1" thickBot="1">
+    <row r="3" spans="1:10" ht="60" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="21"/>
-    </row>
-    <row r="4" spans="1:10" ht="56.25" customHeight="1" thickBot="1">
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" ht="56.25" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="21"/>
-    </row>
-    <row r="5" spans="1:10" ht="51.75" customHeight="1" thickBot="1">
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:10" ht="51.75" customHeight="1">
       <c r="A5" s="5"/>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="55.5" customHeight="1" thickBot="1">
+    <row r="6" spans="1:10" ht="55.5" customHeight="1">
       <c r="A6" s="5"/>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="54" customHeight="1" thickBot="1">
+    <row r="7" spans="1:10" ht="54" customHeight="1">
       <c r="A7" s="5"/>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="8" spans="1:10" ht="51" customHeight="1" thickBot="1">
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:10" ht="51" customHeight="1">
       <c r="A8" s="5"/>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="1:10" ht="89.25" customHeight="1" thickBot="1">
+      <c r="E8" s="15"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" ht="89.25" customHeight="1">
       <c r="A9" s="5"/>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:10" ht="53.25" customHeight="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="21"/>
-    </row>
-    <row r="10" spans="1:10" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="11" t="s">
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="1:10" ht="48" customHeight="1">
+      <c r="A11" s="5"/>
+      <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="14" t="s">
+      <c r="C11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="21"/>
-    </row>
-    <row r="11" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="A11" s="5"/>
-      <c r="B11" s="8" t="s">
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:10" ht="48" customHeight="1">
+      <c r="A12" s="5"/>
+      <c r="B12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="14" t="s">
+      <c r="C12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="21"/>
-    </row>
-    <row r="12" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="11" t="s">
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:10" ht="48" customHeight="1">
+      <c r="A13" s="5"/>
+      <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="14" t="s">
+      <c r="C13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="21"/>
-    </row>
-    <row r="13" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="8" t="s">
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:10" ht="42.75" customHeight="1">
+      <c r="A14" s="5"/>
+      <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="14" t="s">
+      <c r="C14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="21"/>
-    </row>
-    <row r="14" spans="1:10" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="8" t="s">
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:10" ht="45.75" customHeight="1">
+      <c r="A15" s="5"/>
+      <c r="B15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="14" t="s">
+      <c r="C15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="21"/>
-    </row>
-    <row r="15" spans="1:10" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="11" t="s">
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:10" ht="46.5" customHeight="1">
+      <c r="A16" s="6"/>
+      <c r="B16" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="21"/>
-    </row>
-    <row r="16" spans="1:10" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="20" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="21"/>

--- a/Lista de chequeo.xlsx
+++ b/Lista de chequeo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\trabajos ficha 3206404\Communicating-Design-Lion-pagina-web-main\Communicating-Design-Lion-pagina-web-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB53F1AB-C103-49B4-BB22-EFFCF15CAD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A4A495-1C4A-462F-BA06-64372D1A1B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -386,24 +386,6 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -558,6 +540,22 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
@@ -566,18 +564,20 @@
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
+        <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="medium">
+        <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
   </dxfs>
@@ -594,13 +594,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B2:E16" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B2:E16" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="B2:E16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Trimestre" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Lista de Chequeo" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Entregables" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{BEB37B81-24E7-4E20-9B6C-0105A79B3860}" name="NOTAS" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Trimestre" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Lista de Chequeo" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Entregables" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{BEB37B81-24E7-4E20-9B6C-0105A79B3860}" name="NOTAS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -866,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="71" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -1035,8 +1035,8 @@
       <c r="C12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>9</v>
+      <c r="D12" s="14" t="s">
+        <v>5</v>
       </c>
       <c r="E12" s="15"/>
     </row>
@@ -1048,8 +1048,8 @@
       <c r="C13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>9</v>
+      <c r="D13" s="14" t="s">
+        <v>5</v>
       </c>
       <c r="E13" s="15"/>
     </row>
